--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,36 +513,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT02279121</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Prospective, Randomized, Controlled Trial Evaluating the Efficacy of a Lock-therapy With a Solution of Taurolidine/Citrate (TauroLock) vs Standard Saline Solution for the Primary Prevention of Catheter-related Infections (CLI) in Adult Patients Wtih a Non-hematological Cancer Treated With Intravenous Anti-tumor Therapy</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>ATAPAC</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -556,36 +566,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT02075424</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Descriptive Study of Biological Stress and Perceived Stress in Call Regulation Operators and Doctors When Processing a Call at the Center 15</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>RegulStress</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -604,36 +619,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT01526915</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contribution of Platelet Rich Fibrin (PRF) After Tooth Avulsion in the Prevention of Healing Delay and of Jawbone Osteochemonecrosis Induced by Bisphosphonates</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>OCN/PRF</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -652,36 +672,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT02535819</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Endothelial Cell Loss After Phacoemulsification Intra and Supracapsular</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>PERCEPOLIS</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -700,32 +725,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02818101</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>HypCor</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -744,36 +774,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT03271476</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>EMDR Psychotherapy of Anxious-depressive Symptoms for Women That Present an Invasive Beast Cancer : a Faisability Study</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>PSYCANCER</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -792,28 +827,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02884297</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Feasibility Study of the Measurement of the Placental Perfusion During the First Trimester of Pregnancy by 3D Doppler Echo-angiography With a Contrast Agent</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>HOPE</t>
         </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -821,7 +858,10 @@
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -840,36 +880,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02818374</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy and Safety of Use of an Innovative Medical Device for Improving Oral Accessibility in People With Disabilities, Presenting Behavioral Disorders: The Oral Accessibility Spatula (Spatule SAB)</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>SAB</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -888,36 +933,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT02886468</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Determinants of Muscle - Skin Distance at the Injection Site in Patients With an Indication for the Use of Epinephrine Auto- Injector Pens</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>DEEP</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -936,36 +986,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT03815227</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Outpatient Birth: Pilot Study to Assess the Feasibility of Maternity Out the Same Date or the Next Day of the Birth</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>ACCAMBU</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -984,36 +1039,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02956265</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Assessment of Optical Spectroscopy's Diagnosis Accuracy When Non-invasively and Automatically Classifying Skin Lesions in One of the Following Histological Classes: Healthy, Actinic Keratosis, in Situ Carcinoma and Invasive Carcinoma.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>SPECTROLIVE</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1032,36 +1092,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT04915274</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Validation of an Electronic Remote Toxicity Management System in Adult Cancer Patients Receiving an Active Anti-cancer Treatment</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>eRToMSy</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1080,36 +1145,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT03898453</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>EMDR Psychotherapy of Anxious-depressive Symptoms for Women That Present an Invasive Breast Cancer : a Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>PSYCANCER</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1128,36 +1198,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT05265832</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Identification of Factors That Influence the Corneal Endothelial Cell Loss During Phacoemulsification</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>PREDICS</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1174,36 +1249,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2018-000597-29</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Interest of Nasal Provocation Tests for Diagnosis of House Mites Allergic Rhinitis  
  Intérêt des tests de provocation nasale dans la sélection des patients devant bénéficier d’une immunothérapie spécifique aux acariens</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>NPT-MAR 
  NPT-MAR</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -64,7 +64,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -73,13 +73,13 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT02279121</t>

--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,43 +40,25 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>vert</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 12 mois</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT02279121</t>
@@ -604,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,533 +617,341 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+      <c r="F4" t="s">
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
+      <c r="F8" t="s">
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>65</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -73,27 +73,27 @@
     <t>NCT02535819</t>
   </si>
   <si>
+    <t>NCT03271476</t>
+  </si>
+  <si>
     <t>NCT02818101</t>
   </si>
   <si>
-    <t>NCT03271476</t>
-  </si>
-  <si>
     <t>NCT02884297</t>
   </si>
   <si>
     <t>NCT02818374</t>
   </si>
   <si>
+    <t>NCT03815227</t>
+  </si>
+  <si>
+    <t>NCT02956265</t>
+  </si>
+  <si>
     <t>NCT02886468</t>
   </si>
   <si>
-    <t>NCT03815227</t>
-  </si>
-  <si>
-    <t>NCT02956265</t>
-  </si>
-  <si>
     <t>NCT04915274</t>
   </si>
   <si>
@@ -148,13 +148,13 @@
     <t>Evaluation of the Efficacy and Safety of Use of an Innovative Medical Device for Improving Oral Accessibility in People With Disabilities, Presenting Behavioral Disorders: The Oral Accessibility Spatula (Spatule SAB)</t>
   </si>
   <si>
+    <t>Outpatient Birth: Pilot Study to Assess the Feasibility of Maternity Out the Same Date or the Next Day of the Birth</t>
+  </si>
+  <si>
+    <t>Assessment of Optical Spectroscopy's Diagnosis Accuracy When Non-invasively and Automatically Classifying Skin Lesions in One of the Following Histological Classes: Healthy, Actinic Keratosis, in Situ Carcinoma and Invasive Carcinoma.</t>
+  </si>
+  <si>
     <t>Determinants of Muscle - Skin Distance at the Injection Site in Patients With an Indication for the Use of Epinephrine Auto- Injector Pens</t>
-  </si>
-  <si>
-    <t>Outpatient Birth: Pilot Study to Assess the Feasibility of Maternity Out the Same Date or the Next Day of the Birth</t>
-  </si>
-  <si>
-    <t>Assessment of Optical Spectroscopy's Diagnosis Accuracy When Non-invasively and Automatically Classifying Skin Lesions in One of the Following Histological Classes: Healthy, Actinic Keratosis, in Situ Carcinoma and Invasive Carcinoma.</t>
   </si>
   <si>
     <t>Validation of an Electronic Remote Toxicity Management System in Adult Cancer Patients Receiving an Active Anti-cancer Treatment</t>
@@ -182,25 +182,25 @@
     <t>PERCEPOLIS</t>
   </si>
   <si>
+    <t>PSYCANCER</t>
+  </si>
+  <si>
     <t>HypCor</t>
   </si>
   <si>
-    <t>PSYCANCER</t>
-  </si>
-  <si>
     <t>HOPE</t>
   </si>
   <si>
     <t>SAB</t>
   </si>
   <si>
+    <t>ACCAMBU</t>
+  </si>
+  <si>
+    <t>SPECTROLIVE</t>
+  </si>
+  <si>
     <t>DEEP</t>
-  </si>
-  <si>
-    <t>ACCAMBU</t>
-  </si>
-  <si>
-    <t>SPECTROLIVE</t>
   </si>
   <si>
     <t>eRToMSy</t>
@@ -723,6 +723,9 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
       <c r="H6" t="s">
         <v>55</v>
       </c>
@@ -742,9 +745,6 @@
       </c>
       <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -842,7 +842,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -865,7 +865,7 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -908,7 +908,7 @@
         <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
         <v>68</v>

--- a/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
+++ b/publipostage2/02d741577/liste_essais_cliniques_identifies_02d741577.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>statut</t>
   </si>
@@ -52,13 +52,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT02279121</t>
@@ -70,30 +70,30 @@
     <t>NCT01526915</t>
   </si>
   <si>
+    <t>NCT02818101</t>
+  </si>
+  <si>
+    <t>NCT03271476</t>
+  </si>
+  <si>
     <t>NCT02535819</t>
   </si>
   <si>
-    <t>NCT03271476</t>
-  </si>
-  <si>
-    <t>NCT02818101</t>
+    <t>NCT02818374</t>
   </si>
   <si>
     <t>NCT02884297</t>
   </si>
   <si>
-    <t>NCT02818374</t>
+    <t>NCT02886468</t>
+  </si>
+  <si>
+    <t>NCT02956265</t>
   </si>
   <si>
     <t>NCT03815227</t>
   </si>
   <si>
-    <t>NCT02956265</t>
-  </si>
-  <si>
-    <t>NCT02886468</t>
-  </si>
-  <si>
     <t>NCT04915274</t>
   </si>
   <si>
@@ -136,25 +136,25 @@
     <t>Contribution of Platelet Rich Fibrin (PRF) After Tooth Avulsion in the Prevention of Healing Delay and of Jawbone Osteochemonecrosis Induced by Bisphosphonates</t>
   </si>
   <si>
+    <t>EMDR Psychotherapy of Anxious-depressive Symptoms for Women That Present an Invasive Beast Cancer : a Faisability Study</t>
+  </si>
+  <si>
     <t>Endothelial Cell Loss After Phacoemulsification Intra and Supracapsular</t>
   </si>
   <si>
-    <t>EMDR Psychotherapy of Anxious-depressive Symptoms for Women That Present an Invasive Beast Cancer : a Faisability Study</t>
+    <t>Evaluation of the Efficacy and Safety of Use of an Innovative Medical Device for Improving Oral Accessibility in People With Disabilities, Presenting Behavioral Disorders: The Oral Accessibility Spatula (Spatule SAB)</t>
   </si>
   <si>
     <t>Feasibility Study of the Measurement of the Placental Perfusion During the First Trimester of Pregnancy by 3D Doppler Echo-angiography With a Contrast Agent</t>
   </si>
   <si>
-    <t>Evaluation of the Efficacy and Safety of Use of an Innovative Medical Device for Improving Oral Accessibility in People With Disabilities, Presenting Behavioral Disorders: The Oral Accessibility Spatula (Spatule SAB)</t>
+    <t>Determinants of Muscle - Skin Distance at the Injection Site in Patients With an Indication for the Use of Epinephrine Auto- Injector Pens</t>
+  </si>
+  <si>
+    <t>Assessment of Optical Spectroscopy's Diagnosis Accuracy When Non-invasively and Automatically Classifying Skin Lesions in One of the Following Histological Classes: Healthy, Actinic Keratosis, in Situ Carcinoma and Invasive Carcinoma.</t>
   </si>
   <si>
     <t>Outpatient Birth: Pilot Study to Assess the Feasibility of Maternity Out the Same Date or the Next Day of the Birth</t>
-  </si>
-  <si>
-    <t>Assessment of Optical Spectroscopy's Diagnosis Accuracy When Non-invasively and Automatically Classifying Skin Lesions in One of the Following Histological Classes: Healthy, Actinic Keratosis, in Situ Carcinoma and Invasive Carcinoma.</t>
-  </si>
-  <si>
-    <t>Determinants of Muscle - Skin Distance at the Injection Site in Patients With an Indication for the Use of Epinephrine Auto- Injector Pens</t>
   </si>
   <si>
     <t>Validation of an Electronic Remote Toxicity Management System in Adult Cancer Patients Receiving an Active Anti-cancer Treatment</t>
@@ -179,28 +179,28 @@
     <t>OCN/PRF</t>
   </si>
   <si>
+    <t>HypCor</t>
+  </si>
+  <si>
+    <t>PSYCANCER</t>
+  </si>
+  <si>
     <t>PERCEPOLIS</t>
   </si>
   <si>
-    <t>PSYCANCER</t>
-  </si>
-  <si>
-    <t>HypCor</t>
+    <t>SAB</t>
   </si>
   <si>
     <t>HOPE</t>
   </si>
   <si>
-    <t>SAB</t>
+    <t>DEEP</t>
+  </si>
+  <si>
+    <t>SPECTROLIVE</t>
   </si>
   <si>
     <t>ACCAMBU</t>
-  </si>
-  <si>
-    <t>SPECTROLIVE</t>
-  </si>
-  <si>
-    <t>DEEP</t>
   </si>
   <si>
     <t>eRToMSy</t>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>DRUG</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
   </si>
 </sst>
 </file>
@@ -689,10 +692,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -700,14 +703,11 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" t="s">
         <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -724,7 +724,7 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>55</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -746,19 +746,22 @@
       <c r="F7" t="s">
         <v>32</v>
       </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -773,15 +776,15 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -796,7 +799,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -952,6 +955,9 @@
       </c>
       <c r="H16" t="s">
         <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
